--- a/biology/Médecine/Epi_Info/Epi_Info.xlsx
+++ b/biology/Médecine/Epi_Info/Epi_Info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epi Info est un logiciel de statistiques du domaine public destiné à l'épidémiologie développé à partir de 1985 par les Centres pour le contrôle et la prévention des maladies aux États-Unis.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Développé par les CDC d'Atlanta en collaboration avec l'Organisation mondiale de la santé[1] dès 1985 pour MS-DOS, Epi Info devient public en 2008.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Développé par les CDC d'Atlanta en collaboration avec l'Organisation mondiale de la santé dès 1985 pour MS-DOS, Epi Info devient public en 2008.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Epi Info est un logiciel qui permet de concevoir des  questionnaires, de saisir les réponses données à ces questionnaires et d'appliquer des traitements statistiques sur les données recueillies.
 </t>
@@ -573,22 +589,129 @@
           <t>Versions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le logiciel n'est disponible que sur les environnements Microsoft Windows.
-Epi Info 3.5
-La branche 3.5 du logiciel Epi Info fut lancée le 9 juin 2008. Elle a été finalisée avec la version 3.5.4 publiée le 30 juillet 2012[2]
-Epi Info 6
-La version 6.04d est la dernière version fonctionnant sous DOS connue. Elle apporte des correctifs notamment relatifs au Bug de l'an 2000[3]. Cette version ne fonctionne sur les systèmes d'exploitation 64-bit[4].
-Epi Info 7
-La version 7.1.5 publiée le 19 mars 2015 est la version la plus récente à ce jour[5]. Elle apporte des améliorations telles que :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Epi_Info</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epi_Info</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Versions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Epi Info 3.5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La branche 3.5 du logiciel Epi Info fut lancée le 9 juin 2008. Elle a été finalisée avec la version 3.5.4 publiée le 30 juillet 2012
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Epi_Info</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epi_Info</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Versions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Epi Info 6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La version 6.04d est la dernière version fonctionnant sous DOS connue. Elle apporte des correctifs notamment relatifs au Bug de l'an 2000. Cette version ne fonctionne sur les systèmes d'exploitation 64-bit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Epi_Info</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epi_Info</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Versions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Epi Info 7</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La version 7.1.5 publiée le 19 mars 2015 est la version la plus récente à ce jour. Elle apporte des améliorations telles que :
 Facilité d'installation pour tout type d'utilisateur
 Notification de la disponibilité de nouvelles mises à jour
 Création de questionnaires avec plus de 255 champs de saisie
 Disponibilité de questionnaires préconçus utilisables comme base de travail
 Possibilité de saisie de données par plusieurs personnes en même temps sur un système informatique multi utilisateur
 Nouveaux types de contrôle de la saisie
-Le nouveau format des fichiers projet est le format .prj. Les bases de données sont désormais disponible aux formats Access et SQL[6].
+Le nouveau format des fichiers projet est le format .prj. Les bases de données sont désormais disponible aux formats Access et SQL.
 </t>
         </is>
       </c>
